--- a/Rt366.xlsx
+++ b/Rt366.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Call Days</t>
+    <t xml:space="preserve">Days</t>
   </si>
   <si>
     <t xml:space="preserve">Frequency</t>
@@ -422,8 +422,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
